--- a/biology/Botanique/Gigartinales/Gigartinales.xlsx
+++ b/biology/Botanique/Gigartinales/Gigartinales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gigartinales sont un ordre d'algues rouges de la sous-classe des Rhodymeniophycidae, dans la classe des Florideophyceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (6 mai 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (6 mai 2012) :
 famille des Acrotylaceae F.Schmitz
 famille des Areschougiaceae J.Agardh
 famille des Blinksiaceae Hollenberg &amp; Abbott
@@ -546,7 +560,7 @@
 famille des Solieriaceae J.Agardh
 famille des Sphaerococcaceae F.Schmitz &amp; Hauptfleisch
 famille des Tichocarpaceae Kylin
-Selon Catalogue of Life                                   (6 mai 2012)[2] :
+Selon Catalogue of Life                                   (6 mai 2012) :
 famille des Acrosymphytaceae
 famille des Acrotylaceae
 famille des Areschougiaceae
@@ -588,7 +602,7 @@
 famille des Sphaerococcaceae
 famille des Tichocarpaceae
 famille des Wurdemanniaceae
-Selon ITIS      (6 mai 2012)[3] :
+Selon ITIS      (6 mai 2012) :
 famille des Acrotylaceae
 famille des Blinksiaceae
 famille des Calosiphoniaceae
@@ -610,7 +624,7 @@
 famille des Sphaerococcaceae
 famille des Tichocarsaceae
 famille des Weeksiaceae
-Selon NCBI  (6 mai 2012)[4] :
+Selon NCBI  (6 mai 2012) :
 famille des Acrotylaceae
 famille des Areschougiaceae
 famille des Calosiphoniaceae
@@ -647,7 +661,7 @@
 famille des Sphaerococcaceae
 famille des Tichocarpaceae
 famille des Wurdemanniaceae
-Selon World Register of Marine Species                               (6 mai 2012)[5] :
+Selon World Register of Marine Species                               (6 mai 2012) :
 famille des Acrotylaceae
 famille des Areschougiaceae
 famille des Blinksiaceae
